--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,141 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -499,6 +634,141 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -534,6 +804,141 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -569,6 +974,141 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -604,6 +1144,141 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -625,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -637,6 +1312,141 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,6 +1484,141 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -709,6 +1654,141 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,11 +1810,11 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -742,6 +1822,141 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,30 +1968,165 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,30 +2138,7815 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,39 +503,6 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -584,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -608,39 +575,6 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -717,39 +651,6 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -824,39 +725,6 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -931,39 +799,6 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1038,39 +873,6 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1086,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1144,39 +946,6 @@
       </c>
       <c r="X7" t="n">
         <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1193,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1211,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1232,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1250,39 +1019,6 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1306,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1336,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1357,39 +1093,6 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1466,39 +1169,6 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1573,39 +1243,6 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1636,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1678,39 +1315,6 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1773,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1786,39 +1390,6 @@
       </c>
       <c r="X13" t="n">
         <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1856,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1892,39 +1463,6 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2001,39 +1539,6 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2108,39 +1613,6 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2215,39 +1687,6 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2278,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2293,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2320,39 +1759,6 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2403,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2427,39 +1833,6 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2507,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2519,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2534,39 +1907,6 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2643,39 +1983,6 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2721,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2739,48 +2046,15 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2813,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2828,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2855,39 +2129,6 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2932,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2962,1216 +2203,6 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,102 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -518,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -572,9 +668,105 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -651,6 +843,102 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -725,6 +1013,102 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -799,6 +1183,102 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -820,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -871,6 +1351,102 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -885,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -945,6 +1521,102 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1019,6 +1691,102 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1042,11 +1810,11 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1072,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1093,6 +1861,102 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1146,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1167,6 +2031,102 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,6 +2203,102 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1317,6 +2373,102 @@
       <c r="X12" t="n">
         <v>0</v>
       </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1350,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1389,6 +2541,102 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1424,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1463,6 +2711,102 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1492,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1507,28 +2851,28 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1537,6 +2881,102 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1566,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1584,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1611,6 +3051,102 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1637,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1661,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1685,6 +3221,102 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1717,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1744,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1759,6 +3391,102 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1785,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1809,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1833,6 +3561,102 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1909,6 +3733,102 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1933,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1954,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1981,6 +3901,102 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2028,26 +4044,26 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -2055,6 +4071,102 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2087,48 +4199,144 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2152,57 +4360,5593 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -498,6 +513,21 @@
       </c>
       <c r="K2" t="n">
         <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -534,6 +564,21 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -569,6 +614,21 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -604,6 +664,21 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -613,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -637,6 +712,21 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -651,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -672,6 +762,21 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,6 +814,21 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -742,6 +862,21 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -768,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -777,6 +912,21 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -812,6 +962,271 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,21 +464,6 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -494,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -513,21 +498,6 @@
       </c>
       <c r="K2" t="n">
         <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -564,21 +534,6 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -614,21 +569,6 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -664,21 +604,6 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -688,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -712,21 +637,6 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -741,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -762,21 +672,6 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,21 +709,6 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -850,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -862,21 +742,6 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -903,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -912,21 +777,6 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -962,271 +812,6 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,27 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -498,6 +519,27 @@
       </c>
       <c r="K2" t="n">
         <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -534,6 +576,27 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -569,6 +632,27 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -604,6 +688,27 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -639,6 +744,27 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -651,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -672,6 +798,27 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -695,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -707,6 +854,27 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -730,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -739,9 +907,30 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -750,10 +939,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -777,6 +966,27 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -788,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -809,9 +1019,422 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,27 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -530,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -539,7 +560,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -597,6 +639,27 @@
       <c r="R3" t="n">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -633,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -651,6 +714,27 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,6 +793,27 @@
       <c r="R5" t="n">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +870,27 @@
       <c r="R6" t="n">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -821,6 +947,27 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -830,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -842,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -875,6 +1022,27 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -886,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -901,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -928,9 +1096,30 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -960,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -987,6 +1176,27 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,12 +1247,33 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1075,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1099,6 +1330,27 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1125,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1146,15 +1398,36 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1193,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1202,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1211,6 +1484,27 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1246,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1267,6 +1561,27 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1275,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1314,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1323,6 +1638,27 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,6 +1717,27 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1426,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1435,6 +1792,566 @@
         <v>1</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,9 +503,6 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -578,9 +575,6 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -657,9 +651,6 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -734,9 +725,6 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -811,9 +799,6 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -888,9 +873,6 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -906,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -951,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -960,12 +942,9 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1042,9 +1021,6 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1066,10 +1042,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1117,9 +1093,6 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,9 +1169,6 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1273,9 +1243,6 @@
       <c r="X11" t="n">
         <v>0</v>
       </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1306,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1348,9 +1315,6 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1377,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1389,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1425,9 +1389,6 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1466,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1475,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1502,9 +1463,6 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1528,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1549,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1579,9 +1537,6 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1647,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1656,9 +1611,6 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,9 +1687,6 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1768,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1783,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1795,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1810,9 +1759,6 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1863,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1887,9 +1833,6 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1949,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1964,9 +1907,6 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1990,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2014,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2041,9 +1981,6 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2091,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2109,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2118,9 +2055,6 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2189,15 +2123,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2209,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2221,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2272,86 +2203,6 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,84 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -577,6 +655,84 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -651,6 +807,84 @@
       <c r="X3" t="n">
         <v>0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -725,6 +959,84 @@
       <c r="X4" t="n">
         <v>0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -799,6 +1111,84 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -873,6 +1263,84 @@
       <c r="X6" t="n">
         <v>0</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -888,23 +1356,23 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -912,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -945,6 +1413,84 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,6 +1567,84 @@
       <c r="X8" t="n">
         <v>0</v>
       </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1042,11 +1666,11 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1072,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1093,6 +1717,84 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1169,6 +1871,84 @@
       <c r="X10" t="n">
         <v>0</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1193,23 +1973,23 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1241,6 +2021,84 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1276,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1315,6 +2173,84 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1391,6 +2327,84 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1412,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1427,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1463,6 +2477,84 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,6 +2631,84 @@
       <c r="X15" t="n">
         <v>0</v>
       </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1613,6 +2783,84 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1687,6 +2935,84 @@
       <c r="X17" t="n">
         <v>0</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1717,48 +3043,126 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1809,14 +3213,14 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
@@ -1833,6 +3237,84 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1909,6 +3391,84 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1954,23 +3514,23 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
@@ -1981,6 +3541,84 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2028,26 +3666,26 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -2055,6 +3693,84 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2087,41 +3803,41 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2129,6 +3845,84 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2152,44 +3946,44 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -2203,6 +3997,4036 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
         <v>0</v>
       </c>
     </row>

--- a/public_html/ADG/Adjmatrix.xlsx
+++ b/public_html/ADG/Adjmatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:BF58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,30 @@
       <c r="AX1" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -733,6 +757,30 @@
       <c r="AX2" t="n">
         <v>0</v>
       </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -885,6 +933,30 @@
       <c r="AX3" t="n">
         <v>0</v>
       </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1037,6 +1109,30 @@
       <c r="AX4" t="n">
         <v>0</v>
       </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1189,6 +1285,30 @@
       <c r="AX5" t="n">
         <v>0</v>
       </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1341,6 +1461,30 @@
       <c r="AX6" t="n">
         <v>0</v>
       </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1371,126 +1515,150 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,6 +1813,30 @@
       <c r="AX8" t="n">
         <v>0</v>
       </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1777,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -1795,6 +1987,30 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1949,6 +2165,30 @@
       <c r="AX10" t="n">
         <v>0</v>
       </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1973,14 +2213,14 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1988,117 +2228,141 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2125,14 +2389,14 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -2251,6 +2515,30 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2405,6 +2693,30 @@
       <c r="AX13" t="n">
         <v>0</v>
       </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2426,26 +2738,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
@@ -2555,6 +2867,30 @@
         <v>0</v>
       </c>
       <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2709,6 +3045,30 @@
       <c r="AX15" t="n">
         <v>0</v>
       </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2861,6 +3221,30 @@
       <c r="AX16" t="n">
         <v>0</v>
       </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2906,77 +3290,77 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
@@ -3011,6 +3395,30 @@
         <v>0</v>
       </c>
       <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3061,11 +3469,11 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
@@ -3121,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -3163,6 +3571,30 @@
         <v>0</v>
       </c>
       <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3317,6 +3749,30 @@
       <c r="AX19" t="n">
         <v>0</v>
       </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3469,6 +3925,30 @@
       <c r="AX20" t="n">
         <v>0</v>
       </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3621,6 +4101,30 @@
       <c r="AX21" t="n">
         <v>0</v>
       </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3681,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3771,6 +4275,30 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3827,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3836,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3923,6 +4451,30 @@
         <v>0</v>
       </c>
       <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3979,10 +4531,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -4075,6 +4627,30 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4116,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -4134,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -4227,6 +4803,30 @@
         <v>0</v>
       </c>
       <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -4379,6 +4979,30 @@
         <v>0</v>
       </c>
       <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4408,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -4459,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -4519,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -4531,6 +5155,30 @@
         <v>0</v>
       </c>
       <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4611,11 +5259,11 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
         <v>1</v>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
@@ -4677,12 +5325,36 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
         <v>1</v>
       </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4766,23 +5438,23 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
         <v>1</v>
       </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
       <c r="AG29" t="n">
         <v>0</v>
       </c>
@@ -4790,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -4835,6 +5507,30 @@
         <v>0</v>
       </c>
       <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4989,6 +5685,30 @@
       <c r="AX30" t="n">
         <v>0</v>
       </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5141,6 +5861,30 @@
       <c r="AX31" t="n">
         <v>0</v>
       </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5285,12 +6029,36 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
       </c>
       <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5383,23 +6151,23 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>1</v>
       </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ33" t="n">
         <v>0</v>
       </c>
@@ -5437,12 +6205,36 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
         <v>1</v>
       </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5535,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -5544,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -5595,6 +6387,30 @@
         <v>0</v>
       </c>
       <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5749,6 +6565,30 @@
       <c r="AX35" t="n">
         <v>0</v>
       </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -5836,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -5854,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
@@ -5899,6 +6739,30 @@
         <v>0</v>
       </c>
       <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,6 +6917,30 @@
       <c r="AX37" t="n">
         <v>0</v>
       </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6155,17 +7043,17 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
         <v>1</v>
       </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
       <c r="AL38" t="n">
         <v>0</v>
       </c>
@@ -6203,6 +7091,30 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6307,20 +7219,20 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
         <v>1</v>
       </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
@@ -6355,6 +7267,30 @@
         <v>0</v>
       </c>
       <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6444,32 +7380,32 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
         <v>1</v>
       </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
       <c r="AL40" t="n">
         <v>0</v>
       </c>
@@ -6507,6 +7443,30 @@
         <v>0</v>
       </c>
       <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,46 +7556,46 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
         <v>1</v>
       </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
       <c r="AO41" t="n">
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
@@ -6659,6 +7619,30 @@
         <v>0</v>
       </c>
       <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6703,77 +7687,77 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
         <v>1</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
       <c r="AL42" t="n">
         <v>0</v>
       </c>
@@ -6793,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="AR42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" t="n">
         <v>0</v>
@@ -6811,6 +7795,30 @@
         <v>0</v>
       </c>
       <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6855,114 +7863,138 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ43" t="n">
         <v>0</v>
       </c>
       <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
         <v>1</v>
       </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,116 +8018,116 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
         <v>1</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
       <c r="AR44" t="n">
         <v>0</v>
       </c>
@@ -7115,6 +8147,30 @@
         <v>0</v>
       </c>
       <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7269,6 +8325,30 @@
       <c r="AX45" t="n">
         <v>0</v>
       </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -7293,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -7401,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="AR46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" t="n">
         <v>0</v>
@@ -7419,6 +8499,30 @@
         <v>0</v>
       </c>
       <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7529,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47" t="n">
         <v>0</v>
@@ -7559,18 +8663,42 @@
         <v>0</v>
       </c>
       <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
         <v>1</v>
       </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
       <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7681,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48" t="n">
         <v>0</v>
@@ -7714,15 +8842,39 @@
         <v>0</v>
       </c>
       <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
         <v>1</v>
       </c>
-      <c r="AV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>0</v>
-      </c>
       <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7734,86 +8886,86 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
         <v>1</v>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
       <c r="AD49" t="n">
         <v>0</v>
       </c>
@@ -7875,6 +9027,30 @@
         <v>0</v>
       </c>
       <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7886,147 +9062,1579 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
       <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
         <v>0</v>
       </c>
     </row>
